--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-421\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-430\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -671,7 +671,7 @@
     <t>RollRight/CamTxlateBWD</t>
   </si>
   <si>
-    <t>Standard Unmodified Keys - v4.2.1</t>
+    <t>Standard Unmodified Keys - v4.3.0</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-430\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-500\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -671,7 +671,7 @@
     <t>RollRight/CamTxlateBWD</t>
   </si>
   <si>
-    <t>Standard Unmodified Keys - v4.3.0</t>
+    <t>Standard Unmodified Keys - v5.0.0</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
   <si>
     <t>R-CTRL</t>
   </si>
@@ -641,9 +641,6 @@
     <t xml:space="preserve">External </t>
   </si>
   <si>
-    <t>Mute Discord etc</t>
-  </si>
-  <si>
     <t>Mute Voice Attack</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>Standard Unmodified Keys - v5.0.0</t>
+  </si>
+  <si>
+    <t>PTT - Discord</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1323,8 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1348,7 @@
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1403,7 +1403,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>71</v>
@@ -1429,7 +1429,7 @@
         <v>111</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -1754,7 +1754,9 @@
       <c r="J13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="L13" s="18" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
@@ -2099,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
@@ -2123,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -2430,7 +2432,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>9</v>
@@ -2450,12 +2452,8 @@
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
@@ -2500,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="4"/>

--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30465" windowHeight="14430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30465" windowHeight="14430" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="In Ship" sheetId="1" r:id="rId1"/>
+    <sheet name="On Foot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="285">
   <si>
     <t>R-CTRL</t>
   </si>
@@ -671,7 +672,214 @@
     <t>Standard Unmodified Keys - v5.0.0</t>
   </si>
   <si>
-    <t>PTT - Discord</t>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>Aim down sights</t>
+  </si>
+  <si>
+    <t>Throw Grenade</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Switch Weapon</t>
+  </si>
+  <si>
+    <t>Select Primary Weapon</t>
+  </si>
+  <si>
+    <t>Select Secondary Weapon</t>
+  </si>
+  <si>
+    <t>Select Tool</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Strafe Left</t>
+  </si>
+  <si>
+    <t>Strafe Right</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Crouch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Next Weapon</t>
+  </si>
+  <si>
+    <t>Holster Weapon</t>
+  </si>
+  <si>
+    <t>Flashlight</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Left Alt +</t>
+  </si>
+  <si>
+    <t>Item Wheel - L</t>
+  </si>
+  <si>
+    <t>Item Wheel - U</t>
+  </si>
+  <si>
+    <t>Item Wheel - D</t>
+  </si>
+  <si>
+    <t>Item Wheel - R</t>
+  </si>
+  <si>
+    <t>Melee Attack</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Energy Link</t>
+  </si>
+  <si>
+    <t>Profile Analyzer</t>
+  </si>
+  <si>
+    <t>Prev Grenade Type</t>
+  </si>
+  <si>
+    <t>Frag Grenade</t>
+  </si>
+  <si>
+    <t>Energy Cell</t>
+  </si>
+  <si>
+    <t>Health Pack</t>
+  </si>
+  <si>
+    <t>EMP Granade</t>
+  </si>
+  <si>
+    <t>Shield Granade</t>
+  </si>
+  <si>
+    <t>Toggle Shields</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Inisght Hub</t>
+  </si>
+  <si>
+    <t>Shft+;</t>
+  </si>
+  <si>
+    <t>Clear Auth Level</t>
+  </si>
+  <si>
+    <t>Select Suit Tool</t>
+  </si>
+  <si>
+    <t>Mute Discord/Teamspeak etc</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Previous Weapon</t>
+  </si>
+  <si>
+    <t>Next Grenade Type</t>
+  </si>
+  <si>
+    <t>Battle Stats</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Secondary Interact</t>
+  </si>
+  <si>
+    <t>Toggle Tool Mode</t>
+  </si>
+  <si>
+    <t>Toggle Help</t>
   </si>
 </sst>
 </file>
@@ -695,12 +903,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -957,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,6 +1235,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1323,9 +1603,7 @@
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1347,44 +1625,44 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="21" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="21" t="s">
         <v>171</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="21" t="s">
         <v>162</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="21" t="s">
         <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1402,13 +1680,13 @@
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="22" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="4">
@@ -1418,7 +1696,7 @@
       <c r="H4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="22" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1428,7 +1706,7 @@
       <c r="L4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="21" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1436,37 +1714,37 @@
       <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="22" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="22" t="s">
         <v>158</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="22" t="s">
         <v>187</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="22" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1474,37 +1752,37 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="22" t="s">
         <v>159</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="22" t="s">
         <v>177</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="22" t="s">
         <v>188</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="22" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1512,37 +1790,37 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="22" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="22" t="s">
         <v>123</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="22" t="s">
         <v>160</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="22" t="s">
         <v>178</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="22" t="s">
         <v>120</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="22" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1550,37 +1828,37 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="22" t="s">
         <v>133</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="22" t="s">
         <v>179</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="22" t="s">
         <v>129</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="22" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1588,31 +1866,31 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="22" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="22" t="s">
         <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="22" t="s">
         <v>180</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="22" t="s">
         <v>138</v>
       </c>
       <c r="L9" s="18"/>
@@ -1622,13 +1900,13 @@
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="22" t="s">
         <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1638,19 +1916,19 @@
       <c r="H10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="22" t="s">
         <v>181</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="22" t="s">
         <v>137</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="22" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1658,13 +1936,13 @@
       <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>153</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="22" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1674,19 +1952,19 @@
       <c r="H11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="22" t="s">
         <v>182</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="22" t="s">
         <v>136</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1694,25 +1972,25 @@
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="22" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="22" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="22" t="s">
         <v>197</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="22" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -1722,7 +2000,7 @@
       <c r="L12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="22" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1730,37 +2008,37 @@
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="22" t="s">
         <v>191</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="22" t="s">
         <v>198</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="22" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>215</v>
+      <c r="K13" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1768,19 +2046,19 @@
       <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="22" t="s">
         <v>125</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="22" t="s">
         <v>134</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1790,8 +2068,8 @@
       <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>174</v>
+      <c r="K14" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="5"/>
@@ -1800,19 +2078,19 @@
       <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="22" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="22" t="s">
         <v>124</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="22" t="s">
         <v>199</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1822,13 +2100,13 @@
       <c r="J15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="22" t="s">
         <v>139</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="22" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1836,31 +2114,31 @@
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="22" t="s">
         <v>126</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="22" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="38" t="s">
         <v>116</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="22" t="s">
         <v>140</v>
       </c>
       <c r="L16" s="18"/>
@@ -1870,31 +2148,31 @@
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="22" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>152</v>
+      <c r="G17" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="22" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="22" t="s">
         <v>141</v>
       </c>
       <c r="L17" s="18"/>
@@ -1904,20 +2182,20 @@
       <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="23" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="23" t="s">
         <v>161</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>151</v>
+      <c r="G18" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>93</v>
@@ -1926,7 +2204,7 @@
       <c r="J18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="23" t="s">
         <v>175</v>
       </c>
       <c r="L18" s="19"/>
@@ -1934,30 +2212,30 @@
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26" t="s">
+      <c r="G20" s="47"/>
+      <c r="H20" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="47"/>
+      <c r="J20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26" t="s">
+      <c r="K20" s="47"/>
+      <c r="L20" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="27"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
@@ -1967,13 +2245,13 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="2"/>
@@ -1989,19 +2267,19 @@
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="22" t="s">
         <v>193</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="22" t="s">
         <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="22" t="s">
         <v>200</v>
       </c>
       <c r="H22" s="4"/>
@@ -2017,19 +2295,19 @@
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="22" t="s">
         <v>194</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="22" t="s">
         <v>201</v>
       </c>
       <c r="H23" s="4"/>
@@ -2046,13 +2324,13 @@
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="22" t="s">
         <v>202</v>
       </c>
       <c r="H24" s="4"/>
@@ -2070,13 +2348,13 @@
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="22" t="s">
         <v>203</v>
       </c>
       <c r="H25" s="4"/>
@@ -2094,13 +2372,13 @@
       <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="22" t="s">
         <v>212</v>
       </c>
       <c r="H26" s="4"/>
@@ -2118,13 +2396,13 @@
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="22" t="s">
         <v>213</v>
       </c>
       <c r="H27" s="4"/>
@@ -2141,13 +2419,13 @@
       <c r="D28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4"/>
@@ -2165,13 +2443,13 @@
       <c r="D29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="22" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="4"/>
@@ -2189,13 +2467,13 @@
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="22" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="4"/>
@@ -2213,13 +2491,13 @@
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="4"/>
@@ -2237,7 +2515,7 @@
       <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="9"/>
@@ -2257,7 +2535,7 @@
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F33" s="4"/>
@@ -2279,7 +2557,7 @@
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="21" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="2"/>
@@ -2294,16 +2572,12 @@
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="22" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="4"/>
@@ -2319,11 +2593,11 @@
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="4"/>
@@ -2338,14 +2612,14 @@
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="2"/>
@@ -2360,16 +2634,16 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>195</v>
+      <c r="D38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="4"/>
@@ -2384,16 +2658,16 @@
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>196</v>
+      <c r="D39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="4"/>
@@ -2413,7 +2687,7 @@
       <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="22" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="4"/>
@@ -2428,16 +2702,16 @@
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>205</v>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="22" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="4"/>
@@ -2452,12 +2726,16 @@
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="F42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="4"/>
@@ -2477,7 +2755,7 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="22" t="s">
         <v>206</v>
       </c>
       <c r="H43" s="4"/>
@@ -2493,11 +2771,11 @@
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="36" t="s">
         <v>207</v>
       </c>
       <c r="H44" s="4"/>
@@ -2516,7 +2794,7 @@
       <c r="F45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="22" t="s">
         <v>55</v>
       </c>
       <c r="H45" s="9"/>
@@ -2536,7 +2814,7 @@
       <c r="F46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="37" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="14"/>
@@ -2556,7 +2834,7 @@
       <c r="F47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="37" t="s">
         <v>57</v>
       </c>
       <c r="H47" s="14"/>
@@ -2614,4 +2892,1012 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27">
+        <v>6</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="J21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="30">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="30">
+        <v>8</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="30">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="30">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="30">
+        <v>2</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="30">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="30">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="33">
+        <v>5</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B20:M20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -2901,7 +2901,9 @@
   </sheetPr>
   <dimension ref="B1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
